--- a/biology/Zoologie/Glaréole_à_collier/Glaréole_à_collier.xlsx
+++ b/biology/Zoologie/Glaréole_à_collier/Glaréole_à_collier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glar%C3%A9ole_%C3%A0_collier</t>
+          <t>Glaréole_à_collier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glareola pratincola
 La Glaréole à collier (Glareola pratincola) est une espèce d'oiseaux limicoles de la famille des Glareolidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glar%C3%A9ole_%C3%A0_collier</t>
+          <t>Glaréole_à_collier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau a la taille et la silhouette d'une petite mouette ou d'une sterne mais un bec court.
 Il est difficile à différencier de la Glaréole à ailes noires : il se distingue cependant par la présence d'une bordure blanche à l'arrière des ailes et aussi le dessous des ailes brun roux à la base (visibles dans de bonnes conditions).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glar%C3%A9ole_%C3%A0_collier</t>
+          <t>Glaréole_à_collier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux vivent en Europe, en Afrique et en Asie centrale ; ils hivernent en Afrique subsaharienne.
 Ils vivent dans les endroits dégagés, prairies, steppes, deltas asséchés souvent près de l'eau et se nourrissant d'insectes attrapés en vol ou glanés au sol (parfois dans les cultures humaines).
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glar%C3%A9ole_%C3%A0_collier</t>
+          <t>Glaréole_à_collier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des quatre sous-espèces suivantes :
 Glareola pratincola erlangeri Neumann 1920 ;
